--- a/works/nettyServer/src/main/resources/excels/monster.xlsx
+++ b/works/nettyServer/src/main/resources/excels/monster.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -40,28 +40,40 @@
     <t>drop</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>野猪</t>
   </si>
   <si>
     <t>弓箭手</t>
   </si>
   <si>
+    <t>2,3</t>
+  </si>
+  <si>
     <t>草精</t>
   </si>
   <si>
+    <t>2,4</t>
+  </si>
+  <si>
     <t>地精</t>
   </si>
   <si>
     <t>玉狐</t>
   </si>
   <si>
+    <t>1,4,6</t>
+  </si>
+  <si>
     <t>刑天</t>
   </si>
   <si>
+    <t>1,5,6</t>
+  </si>
+  <si>
     <t>蚩尤</t>
+  </si>
+  <si>
+    <t>1,4,5,7</t>
   </si>
 </sst>
 </file>
@@ -69,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,6 +102,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -97,6 +110,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -116,35 +159,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,24 +170,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,43 +209,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,13 +248,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,169 +416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +439,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,41 +516,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,26 +539,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,15 +1012,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,16 +1045,13 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1059,16 +1068,13 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1079,14 +1085,14 @@
       <c r="E3">
         <v>20</v>
       </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
       <c r="G3">
         <v>15</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1102,19 +1108,19 @@
       <c r="E4">
         <v>30</v>
       </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>400</v>
@@ -1126,21 +1132,18 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -1151,19 +1154,19 @@
       <c r="E6">
         <v>100</v>
       </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
       <c r="G6">
         <v>150</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>40000</v>
@@ -1174,19 +1177,19 @@
       <c r="E7">
         <v>200</v>
       </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
       <c r="G7">
         <v>4000</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>15000</v>
@@ -1197,14 +1200,11 @@
       <c r="E8">
         <v>500</v>
       </c>
-      <c r="F8">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>19</v>
       </c>
       <c r="G8">
         <v>2000</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/src/main/resources/excels/monster.xlsx
+++ b/works/nettyServer/src/main/resources/excels/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555"/>
+    <workbookView windowWidth="21000" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -40,9 +40,18 @@
     <t>drop</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>exc</t>
+  </si>
+  <si>
     <t>野猪</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>弓箭手</t>
   </si>
   <si>
@@ -55,6 +64,9 @@
     <t>2,4</t>
   </si>
   <si>
+    <t>3,4</t>
+  </si>
+  <si>
     <t>地精</t>
   </si>
   <si>
@@ -64,16 +76,25 @@
     <t>1,4,6</t>
   </si>
   <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
     <t>刑天</t>
   </si>
   <si>
     <t>1,5,6</t>
   </si>
   <si>
+    <t>3,4,5,6,7,8</t>
+  </si>
+  <si>
     <t>蚩尤</t>
   </si>
   <si>
     <t>1,4,5,7</t>
+  </si>
+  <si>
+    <t>3,4,6,7</t>
   </si>
 </sst>
 </file>
@@ -83,8 +104,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,15 +117,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,127 +259,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,12 +269,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -266,31 +371,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,42 +431,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,85 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,41 +460,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,7 +482,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,21 +560,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -547,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,15 +1033,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1045,13 +1066,19 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1068,13 +1095,22 @@
       <c r="G2">
         <v>5</v>
       </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1086,18 +1122,27 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>15</v>
       </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>500</v>
@@ -1109,18 +1154,27 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>15</v>
       </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>400</v>
@@ -1137,13 +1191,22 @@
       <c r="G5">
         <v>10</v>
       </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -1155,18 +1218,27 @@
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>150</v>
       </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>40000</v>
@@ -1178,18 +1250,27 @@
         <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>4000</v>
       </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>6000</v>
+      </c>
+      <c r="J7">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>15000</v>
@@ -1201,10 +1282,19 @@
         <v>500</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>2000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>5000</v>
+      </c>
+      <c r="J8">
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/src/main/resources/excels/monster.xlsx
+++ b/works/nettyServer/src/main/resources/excels/monster.xlsx
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -131,15 +131,108 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,25 +247,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,83 +257,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,19 +269,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,25 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,133 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +460,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,8 +528,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -492,47 +542,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,15 +560,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,145 +568,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1102,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1134,7 +1134,7 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1166,7 +1166,7 @@
         <v>50</v>
       </c>
       <c r="J4">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1198,7 +1198,7 @@
         <v>50</v>
       </c>
       <c r="J5">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1230,7 +1230,7 @@
         <v>200</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1262,7 +1262,7 @@
         <v>6000</v>
       </c>
       <c r="J7">
-        <v>3000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1294,7 +1294,7 @@
         <v>5000</v>
       </c>
       <c r="J8">
-        <v>900</v>
+        <v>9000</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/src/main/resources/excels/monster.xlsx
+++ b/works/nettyServer/src/main/resources/excels/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8675"/>
+    <workbookView windowWidth="15275" windowHeight="7307"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -130,6 +130,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -137,6 +161,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -151,114 +259,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -269,19 +269,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,156 +450,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,11 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,23 +481,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +498,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,22 +541,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -1125,7 +1125,7 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -1157,7 +1157,7 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -1189,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -1221,7 +1221,7 @@
         <v>19</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>150000</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -1253,7 +1253,7 @@
         <v>22</v>
       </c>
       <c r="G7">
-        <v>4000</v>
+        <v>4000000</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -1285,7 +1285,7 @@
         <v>25</v>
       </c>
       <c r="G8">
-        <v>2000</v>
+        <v>2000000</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>

--- a/works/nettyServer/src/main/resources/excels/monster.xlsx
+++ b/works/nettyServer/src/main/resources/excels/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15275" windowHeight="7307"/>
+    <workbookView windowWidth="15708" windowHeight="8435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>aggr</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>def</t>
   </si>
   <si>
     <t>skill</t>
@@ -102,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,86 +122,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,6 +146,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -216,7 +163,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,32 +178,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,67 +275,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,54 +449,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,60 +456,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +466,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,9 +510,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,65 +566,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,15 +1039,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,13 +1078,19 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1090,27 +1102,33 @@
         <v>10</v>
       </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>5000</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2">
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1121,28 +1139,34 @@
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>15000</v>
+      </c>
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
-        <v>15000</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3">
+      <c r="K3">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>500</v>
@@ -1153,28 +1177,34 @@
       <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
         <v>15000</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4">
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
         <v>50</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>400</v>
@@ -1186,27 +1216,33 @@
         <v>50</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>10000</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5">
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
         <v>50</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -1217,28 +1253,34 @@
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
+      <c r="F6">
+        <v>20</v>
       </c>
       <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
         <v>150000</v>
       </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6">
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
         <v>200</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>40000</v>
@@ -1249,28 +1291,34 @@
       <c r="E7">
         <v>200</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
+      <c r="F7">
+        <v>100</v>
       </c>
       <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
         <v>4000000</v>
       </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7">
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
         <v>6000</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>15000</v>
@@ -1281,19 +1329,25 @@
       <c r="E8">
         <v>500</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
+      <c r="F8">
+        <v>200</v>
       </c>
       <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8">
         <v>2000000</v>
       </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8">
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
         <v>5000</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>9000</v>
       </c>
     </row>

--- a/works/nettyServer/src/main/resources/excels/monster.xlsx
+++ b/works/nettyServer/src/main/resources/excels/monster.xlsx
@@ -109,9 +109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,9 +122,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,6 +145,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -148,14 +177,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +185,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,27 +215,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -206,43 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -251,16 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +275,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,169 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +469,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,17 +538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,45 +566,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>

--- a/works/nettyServer/src/main/resources/excels/monster.xlsx
+++ b/works/nettyServer/src/main/resources/excels/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15708" windowHeight="8435"/>
+    <workbookView windowWidth="21216" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,8 +108,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -122,6 +122,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -129,9 +190,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,15 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,46 +222,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,8 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,37 +261,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +275,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,180 +456,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +466,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,6 +495,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,45 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -557,15 +566,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1093,7 +1093,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1169,7 +1169,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1207,7 +1207,7 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="D6">
         <v>100</v>
